--- a/CU1.2 Ver Oportunidad.xlsx
+++ b/CU1.2 Ver Oportunidad.xlsx
@@ -79,10 +79,11 @@
     <t>Caso de Uso</t>
   </si>
   <si>
-    <t>Que el actor tenga los permisos necesarios para ver el registro.</t>
-  </si>
-  <si>
     <t>El actor hace clic en el botón "Ver" en algún registro del listado de oportunidades</t>
+  </si>
+  <si>
+    <t>Que el actor tenga los permisos necesarios para ver el registro.
+Que existan oportunidades asignadas a telemarketers.</t>
   </si>
 </sst>
 </file>
@@ -544,7 +545,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,12 +624,12 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -651,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10"/>
     </row>

--- a/CU1.2 Ver Oportunidad.xlsx
+++ b/CU1.2 Ver Oportunidad.xlsx
@@ -37,15 +37,9 @@
     <t>Pre-condición</t>
   </si>
   <si>
-    <t>Supervisor</t>
-  </si>
-  <si>
     <t>Actores</t>
   </si>
   <si>
-    <t>Se muestran en pantalla todos los datos de la oportunidad seleccionada.</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>0001</t>
-  </si>
-  <si>
     <t>Versión</t>
   </si>
   <si>
@@ -83,7 +74,17 @@
   </si>
   <si>
     <t>Que el actor tenga los permisos necesarios para ver el registro.
+Que existan oportunidades en estado "Abierta"
 Que existan oportunidades asignadas a telemarketers.</t>
+  </si>
+  <si>
+    <t>Se muestran en pantalla todos los datos de la oportunidad seleccionada incluyendo en la esquina inferior derecha el botón "Llamar".</t>
+  </si>
+  <si>
+    <t>Coordinador/Supervisor/Telemarketer</t>
+  </si>
+  <si>
+    <t>0003</t>
   </si>
 </sst>
 </file>
@@ -545,7 +546,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +558,7 @@
     <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="16">
         <v>42890</v>
@@ -565,71 +566,71 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -652,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10"/>
     </row>

--- a/CU1.2 Ver Oportunidad.xlsx
+++ b/CU1.2 Ver Oportunidad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19875" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Ver Opor" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Se completaron todos los registros del formulario Oportunidad.</t>
   </si>
@@ -70,21 +70,66 @@
     <t>Caso de Uso</t>
   </si>
   <si>
-    <t>El actor hace clic en el botón "Ver" en algún registro del listado de oportunidades</t>
-  </si>
-  <si>
-    <t>Que el actor tenga los permisos necesarios para ver el registro.
-Que existan oportunidades en estado "Abierta"
-Que existan oportunidades asignadas a telemarketers.</t>
-  </si>
-  <si>
-    <t>Se muestran en pantalla todos los datos de la oportunidad seleccionada incluyendo en la esquina inferior derecha el botón "Llamar".</t>
-  </si>
-  <si>
     <t>Coordinador/Supervisor/Telemarketer</t>
   </si>
   <si>
-    <t>0003</t>
+    <t>Se muestran en pantalla todos los datos de la oportunidad seleccionada incluyendo en la esquina inferior derecha el botón "Llamar" y en la esquina inferior izquierda el botón "Volver".</t>
+  </si>
+  <si>
+    <t>El actor haya hecho clic en el botón "Ver" en algún registro del listado de oportunidades
+Que el actor tenga los permisos necesarios para ver el registro.</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Condicion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> El actor quiere ver el detalle de una oportunidad. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Punto de extensión</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Paso 2.b del CU01 Administracion de Supervisores:  El actor hace clic en el botón "Ver" en algún registro del listado de oportunidades del formulario "Administración de Supervisores".</t>
+    </r>
+  </si>
+  <si>
+    <t>El actor hace click en el botón "Volver"</t>
+  </si>
+  <si>
+    <t>El Sistema cierra el formulario</t>
+  </si>
+  <si>
+    <t>Opcionalmente:
+a - El actor hace click en el botón "Llamar"</t>
+  </si>
+  <si>
+    <t>Llamar , paso 2.a</t>
   </si>
 </sst>
 </file>
@@ -102,6 +147,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -183,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -240,6 +286,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -543,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -612,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -621,16 +670,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -641,56 +690,88 @@
       <c r="B10" s="9"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="B14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>4</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CU1.2 Ver Oportunidad.xlsx
+++ b/CU1.2 Ver Oportunidad.xlsx
@@ -74,10 +74,6 @@
   </si>
   <si>
     <t>Se muestran en pantalla todos los datos de la oportunidad seleccionada incluyendo en la esquina inferior derecha el botón "Llamar" y en la esquina inferior izquierda el botón "Volver".</t>
-  </si>
-  <si>
-    <t>El actor haya hecho clic en el botón "Ver" en algún registro del listado de oportunidades
-Que el actor tenga los permisos necesarios para ver el registro.</t>
   </si>
   <si>
     <t>0004</t>
@@ -130,6 +126,9 @@
   </si>
   <si>
     <t>Llamar , paso 2.a</t>
+  </si>
+  <si>
+    <t>Que el actor tenga los permisos necesarios para ver el registro.</t>
   </si>
 </sst>
 </file>
@@ -229,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -288,6 +287,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -594,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -674,12 +676,12 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
+      <c r="B9" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -693,14 +695,14 @@
     <row r="11" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -725,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="10"/>
     </row>
@@ -734,7 +736,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="10"/>
     </row>
@@ -743,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="10"/>
     </row>

--- a/CU1.2 Ver Oportunidad.xlsx
+++ b/CU1.2 Ver Oportunidad.xlsx
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>Coordinador/Supervisor/Telemarketer</t>
-  </si>
-  <si>
-    <t>Se muestran en pantalla todos los datos de la oportunidad seleccionada incluyendo en la esquina inferior derecha el botón "Llamar" y en la esquina inferior izquierda el botón "Volver".</t>
-  </si>
-  <si>
-    <t>0004</t>
   </si>
   <si>
     <r>
@@ -121,14 +115,23 @@
     <t>El Sistema cierra el formulario</t>
   </si>
   <si>
+    <t>Que el actor tenga los permisos necesarios para ver el registro.</t>
+  </si>
+  <si>
     <t>Opcionalmente:
-a - El actor hace click en el botón "Llamar"</t>
-  </si>
-  <si>
-    <t>Llamar , paso 2.a</t>
-  </si>
-  <si>
-    <t>Que el actor tenga los permisos necesarios para ver el registro.</t>
+a - El actor hace click en el botón "Llamar"
+b - El actor hace click en el botón "Modificar"</t>
+  </si>
+  <si>
+    <t>Llamar , paso 2.a
+Modificar , paso 2.b</t>
+  </si>
+  <si>
+    <t>Se muestran en pantalla todos los datos de la oportunidad seleccionada incluyendo los botones "Llamar","Modificar" y "Volver".
+El actor podrá realizar una llamada sobre la oportunidad,modificar oportunidad, o volver al formulario anterior.</t>
+  </si>
+  <si>
+    <t>0005</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -290,6 +293,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -596,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,8 +650,8 @@
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>20</v>
+      <c r="B5" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -658,12 +664,12 @@
       </c>
       <c r="C6" s="14"/>
     </row>
-    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1"/>
     </row>
@@ -671,7 +677,7 @@
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1"/>
@@ -681,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -695,14 +701,14 @@
     <row r="11" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
+      <c r="B12" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -722,12 +728,12 @@
       </c>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="10"/>
     </row>
@@ -735,8 +741,8 @@
       <c r="A16" s="6">
         <v>3</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>22</v>
+      <c r="B16" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="10"/>
     </row>
@@ -745,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="10"/>
     </row>
